--- a/biology/Botanique/Gelidiacées/Gelidiacées.xlsx
+++ b/biology/Botanique/Gelidiacées/Gelidiacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gelidiac%C3%A9es</t>
+          <t>Gelidiacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gelidiaceae sont une famille d’algues rouges de l’ordre des Gelidiales.
 La plupart servent à la fabrication de l'agar-agar.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gelidiac%C3%A9es</t>
+          <t>Gelidiacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 janvier 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 janvier 2019) :
 genre Acanthopeltis Okamura
 genre Acrocarpus Kützing
 genre Acropeltis Montagne
@@ -528,12 +542,12 @@
 genre Ptilophora Kützing
 genre Suhria J.Agardh ex Endlicher
 genre Yatabella Okamura
-Selon ITIS      (12 septembre 2013)[2] :
+Selon ITIS      (12 septembre 2013) :
 genre Gelidiocolax
 genre Gelidiopsis K. J. F. Schmitz, 1895
 genre Gelidium J. V. Lamour.
 genre Pterocladia J. Agardh, 1852
-Selon NCBI  (12 septembre 2013)[3] :
+Selon NCBI  (12 septembre 2013) :
 genre Acanthopeltis
 genre Beckerella
 genre Capreolia
@@ -546,7 +560,7 @@
 genre Ptilophora
 genre Suhria
 genre Yatabella
-Selon World Register of Marine Species                               (12 septembre 2013)[4] :
+Selon World Register of Marine Species                               (12 septembre 2013) :
 genre Acanthopeltis Okamura, 1892
 genre Capreolia Guiry &amp; Womersley, 1993
 genre Gelidium J.V. Lamouroux, 1813
